--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-202_帳票機能要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-202_帳票機能要件定義(サンプル＆ガイド).xlsx
@@ -1630,16 +1630,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1716,6 +1706,13 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4286,9 +4283,7 @@
       <c r="G31" s="35"/>
       <c r="H31" s="32"/>
       <c r="J31" s="36"/>
-      <c r="R31" s="37" t="s">
-        <v>129</v>
-      </c>
+      <c r="R31" s="37"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="32"/>
@@ -4328,20 +4323,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="O39" s="41"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="42"/>
       <c r="R39" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S39" s="41"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4816,7 +4815,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4960,7 +4959,7 @@
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
@@ -5002,7 +5001,7 @@
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-202_帳票機能要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-202_帳票機能要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFDC7D-B226-4CAA-9E8E-6A2BF0C9A93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="10575" windowHeight="5685"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -20,12 +21,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'サンプル（個別帳票機能要件）'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'サンプル（帳票一覧）'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1628,17 +1639,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -1709,18 +1709,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2325,6 +2318,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2334,9 +2360,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2347,9 +2370,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2367,32 +2387,104 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2405,105 +2497,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2584,6 +2577,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2605,7 +2601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2703,52 +2705,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2769,7 +2725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2828,7 +2790,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2920,7 +2888,13 @@
     <xdr:ext cx="1005403" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3010,7 +2984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3091,7 +3071,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -3136,7 +3122,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3213,7 +3205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3310,7 +3308,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3391,7 +3395,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3436,7 +3446,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3500,7 +3516,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3550,7 +3572,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3595,7 +3623,13 @@
     <xdr:ext cx="902811" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3677,7 +3711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3737,7 +3777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3797,7 +3843,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3857,7 +3909,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3906,7 +3964,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3948,7 +4006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3981,9 +4039,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4016,6 +4091,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4191,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S508"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4297,58 +4389,47 @@
       <c r="R32" s="40"/>
       <c r="S32" s="41"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="42"/>
       <c r="P37" s="41"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="41"/>
       <c r="S37" s="43"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="42"/>
       <c r="P38" s="41"/>
       <c r="Q38" s="42"/>
       <c r="R38" s="41"/>
       <c r="S38" s="42"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>130</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="44"/>
       <c r="O39" s="41"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="42"/>
-      <c r="R39" s="42" t="s">
-        <v>131</v>
-      </c>
+      <c r="R39" s="42"/>
       <c r="S39" s="41"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4811,17 +4892,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4959,7 +5037,7 @@
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
@@ -5001,7 +5079,7 @@
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
@@ -5720,12 +5798,33 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="Z25:AH25"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:Y19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:Y41"/>
+    <mergeCell ref="Z41:AH41"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="I39:Y39"/>
+    <mergeCell ref="Z39:AH39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:Y40"/>
+    <mergeCell ref="Z40:AH40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:Y42"/>
+    <mergeCell ref="Z42:AH42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:Y43"/>
+    <mergeCell ref="Z43:AH43"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="I28:Y28"/>
     <mergeCell ref="Z28:AH28"/>
@@ -5738,33 +5837,12 @@
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="I27:Y27"/>
     <mergeCell ref="Z27:AH27"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:Y42"/>
-    <mergeCell ref="Z42:AH42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:Y43"/>
-    <mergeCell ref="Z43:AH43"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:Y41"/>
-    <mergeCell ref="Z41:AH41"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:Y39"/>
-    <mergeCell ref="Z39:AH39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:Y40"/>
-    <mergeCell ref="Z40:AH40"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:Y19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="Z25:AH25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5781,7 +5859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5839,890 +5917,982 @@
       <c r="AU4" s="25"/>
     </row>
     <row r="5" spans="1:49" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67" t="s">
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="69" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69" t="s">
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69" t="s">
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69" t="s">
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69" t="s">
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="68" t="s">
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="67" t="s">
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="67"/>
+      <c r="AS5" s="76"/>
+      <c r="AT5" s="76"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
     </row>
     <row r="6" spans="1:49" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63" t="s">
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="72"/>
+      <c r="AU6" s="72"/>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="72"/>
     </row>
     <row r="7" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="55" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="55" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58" t="s">
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58" t="s">
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58" t="s">
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58" t="s">
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58" t="s">
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="64" t="s">
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="64" t="s">
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="61"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="71"/>
     </row>
     <row r="8" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="74" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="74" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77" t="s">
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77" t="s">
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77" t="s">
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="72"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="61"/>
+      <c r="AT8" s="61"/>
+      <c r="AU8" s="61"/>
+      <c r="AV8" s="61"/>
+      <c r="AW8" s="62"/>
     </row>
     <row r="9" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="72"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="62"/>
     </row>
     <row r="10" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="72"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="62"/>
     </row>
     <row r="11" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="75"/>
-      <c r="AP11" s="75"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="71"/>
-      <c r="AW11" s="72"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="62"/>
     </row>
     <row r="12" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="70"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="72"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61"/>
+      <c r="AW12" s="62"/>
     </row>
     <row r="13" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="75"/>
-      <c r="AP13" s="75"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="70"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="72"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="62"/>
     </row>
     <row r="14" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="72"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="62"/>
     </row>
     <row r="15" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="72"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="62"/>
     </row>
     <row r="16" spans="1:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="72"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="62"/>
     </row>
     <row r="17" spans="2:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="72"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="61"/>
+      <c r="AW17" s="62"/>
     </row>
     <row r="18" spans="2:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="72"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="62"/>
     </row>
     <row r="19" spans="2:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="75"/>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="72"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="62"/>
     </row>
     <row r="20" spans="2:49" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="75"/>
-      <c r="AP20" s="75"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="72"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AR5:AW6"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:J6"/>
+    <mergeCell ref="K5:T6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AI6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AR9:AW9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR10:AW10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AR11:AW11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR12:AW12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AR13:AW13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AR14:AW14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AR15:AW15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AR16:AW16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AR17:AW17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AQ17"/>
     <mergeCell ref="AR20:AW20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:J20"/>
@@ -6747,123 +6917,31 @@
     <mergeCell ref="AB20:AD20"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="U18:X18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AR16:AW16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AR17:AW17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="AR14:AW14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AR15:AW15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AR12:AW12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AR13:AW13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AR10:AW10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AR11:AW11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR8:AW8"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AI6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AR9:AW9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="AR5:AW6"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:J6"/>
-    <mergeCell ref="K5:T6"/>
-    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AQ15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6875,7 +6953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -6938,40 +7016,40 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="80"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="113"/>
     </row>
     <row r="10" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
@@ -7163,1010 +7241,1010 @@
     </row>
     <row r="15" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81" t="s">
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81" t="s">
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81" t="s">
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81" t="s">
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81" t="s">
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
       <c r="AG15" s="11"/>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83" t="s">
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83" t="s">
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83" t="s">
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83" t="s">
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83" t="s">
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
       <c r="AG16" s="11"/>
     </row>
     <row r="17" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83" t="s">
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83" t="s">
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83" t="s">
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83" t="s">
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
       <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83" t="s">
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83" t="s">
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83" t="s">
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83" t="s">
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83" t="s">
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
       <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83" t="s">
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83" t="s">
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83" t="s">
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83" t="s">
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83" t="s">
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
       <c r="AG19" s="11"/>
     </row>
     <row r="20" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83" t="s">
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83" t="s">
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83" t="s">
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83" t="s">
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83" t="s">
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
       <c r="AG20" s="11"/>
     </row>
     <row r="21" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83" t="s">
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83" t="s">
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83" t="s">
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83" t="s">
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83" t="s">
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
       <c r="AG21" s="11"/>
     </row>
     <row r="22" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83" t="s">
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83" t="s">
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83" t="s">
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83" t="s">
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83" t="s">
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83" t="s">
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
       <c r="AG22" s="11"/>
     </row>
     <row r="23" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83" t="s">
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83" t="s">
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83" t="s">
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83" t="s">
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
       <c r="AG23" s="11"/>
     </row>
     <row r="24" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83" t="s">
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83" t="s">
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83" t="s">
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83" t="s">
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83" t="s">
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="83"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
       <c r="AG24" s="11"/>
     </row>
     <row r="25" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83" t="s">
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83" t="s">
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83" t="s">
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83" t="s">
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83" t="s">
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE25" s="83"/>
-      <c r="AF25" s="83"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
       <c r="AG25" s="11"/>
     </row>
     <row r="26" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83" t="s">
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83" t="s">
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83" t="s">
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83" t="s">
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83" t="s">
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="83"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
       <c r="AG26" s="11"/>
     </row>
     <row r="27" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83" t="s">
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83" t="s">
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83" t="s">
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83" t="s">
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83" t="s">
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83" t="s">
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
       <c r="AG27" s="11"/>
     </row>
     <row r="28" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83" t="s">
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83" t="s">
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83" t="s">
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83" t="s">
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83" t="s">
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83" t="s">
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
       <c r="AG28" s="11"/>
     </row>
     <row r="29" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83" t="s">
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83" t="s">
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83" t="s">
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83" t="s">
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83" t="s">
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
       <c r="AG29" s="11"/>
     </row>
     <row r="30" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83" t="s">
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83" t="s">
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83" t="s">
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83" t="s">
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83" t="s">
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83" t="s">
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
       <c r="AG30" s="11"/>
     </row>
     <row r="31" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83" t="s">
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83" t="s">
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83" t="s">
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83" t="s">
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83" t="s">
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE31" s="83"/>
-      <c r="AF31" s="83"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
       <c r="AG31" s="11"/>
     </row>
     <row r="32" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83" t="s">
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83" t="s">
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83" t="s">
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83" t="s">
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83" t="s">
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="83" t="s">
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="83"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
       <c r="AG32" s="11"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83" t="s">
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83" t="s">
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83" t="s">
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83" t="s">
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="83"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83" t="s">
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="83" t="s">
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="83"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
       <c r="AG33" s="11"/>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83" t="s">
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83" t="s">
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83" t="s">
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83" t="s">
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83" t="s">
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="83" t="s">
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="83"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
       <c r="AG34" s="11"/>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9"/>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83" t="s">
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83" t="s">
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83" t="s">
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83" t="s">
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83" t="s">
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
       <c r="AG35" s="11"/>
     </row>
     <row r="36" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8226,19 +8304,19 @@
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
-      <c r="X37" s="83" t="s">
+      <c r="X37" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="83" t="s">
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AE37" s="83"/>
-      <c r="AF37" s="83"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
       <c r="AG37" s="11"/>
     </row>
     <row r="38" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8377,81 +8455,81 @@
       <c r="AF41" s="10"/>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="84" t="s">
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="84"/>
-      <c r="K42" s="86" t="s">
+      <c r="J42" s="100"/>
+      <c r="K42" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="92" t="s">
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="103"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="93"/>
-      <c r="AF42" s="93"/>
-      <c r="AG42" s="93"/>
-      <c r="AH42" s="94"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109"/>
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="110"/>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="85"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="85" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
+      <c r="Z43" s="101"/>
+      <c r="AA43" s="101"/>
+      <c r="AB43" s="101"/>
+      <c r="AC43" s="101"/>
       <c r="AD43" s="49" t="s">
         <v>15</v>
       </c>
@@ -8464,612 +8542,612 @@
       <c r="B44" s="20">
         <v>1</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="113" t="s">
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="114"/>
-      <c r="K44" s="100" t="s">
+      <c r="J44" s="89"/>
+      <c r="K44" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="100" t="s">
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="102"/>
-      <c r="AD44" s="100" t="s">
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="86"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="AE44" s="101"/>
-      <c r="AF44" s="101"/>
-      <c r="AG44" s="101"/>
-      <c r="AH44" s="102"/>
+      <c r="AE44" s="86"/>
+      <c r="AF44" s="86"/>
+      <c r="AG44" s="86"/>
+      <c r="AH44" s="87"/>
     </row>
     <row r="45" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="98">
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83">
         <v>32</v>
       </c>
-      <c r="J45" s="99"/>
-      <c r="K45" s="95" t="s">
+      <c r="J45" s="84"/>
+      <c r="K45" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="95" t="s">
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="95" t="s">
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="96"/>
-      <c r="AG45" s="96"/>
-      <c r="AH45" s="97"/>
+      <c r="AE45" s="81"/>
+      <c r="AF45" s="81"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="82"/>
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="15">
         <v>1.2</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="98">
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="83">
         <v>32</v>
       </c>
-      <c r="J46" s="99"/>
-      <c r="K46" s="95" t="s">
+      <c r="J46" s="84"/>
+      <c r="K46" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="95" t="s">
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="97"/>
-      <c r="AD46" s="95" t="s">
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="82"/>
+      <c r="AD46" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="96"/>
-      <c r="AH46" s="97"/>
+      <c r="AE46" s="81"/>
+      <c r="AF46" s="81"/>
+      <c r="AG46" s="81"/>
+      <c r="AH46" s="82"/>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19">
         <v>1.3</v>
       </c>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="106">
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98">
         <v>8</v>
       </c>
-      <c r="J47" s="107"/>
-      <c r="K47" s="95" t="s">
+      <c r="J47" s="99"/>
+      <c r="K47" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="96"/>
-      <c r="W47" s="96"/>
-      <c r="X47" s="97"/>
-      <c r="Y47" s="103" t="s">
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="Z47" s="104"/>
-      <c r="AA47" s="104"/>
-      <c r="AB47" s="104"/>
-      <c r="AC47" s="105"/>
-      <c r="AD47" s="103" t="s">
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="97"/>
+      <c r="AD47" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="AE47" s="104"/>
-      <c r="AF47" s="104"/>
-      <c r="AG47" s="104"/>
-      <c r="AH47" s="105"/>
+      <c r="AE47" s="96"/>
+      <c r="AF47" s="96"/>
+      <c r="AG47" s="96"/>
+      <c r="AH47" s="97"/>
     </row>
     <row r="48" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="21">
         <v>2</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="111" t="s">
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="108" t="s">
+      <c r="J48" s="94"/>
+      <c r="K48" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="108" t="s">
+      <c r="L48" s="91"/>
+      <c r="M48" s="91"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="91"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="91"/>
+      <c r="R48" s="91"/>
+      <c r="S48" s="91"/>
+      <c r="T48" s="91"/>
+      <c r="U48" s="91"/>
+      <c r="V48" s="91"/>
+      <c r="W48" s="91"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="Z48" s="109"/>
-      <c r="AA48" s="109"/>
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="108" t="s">
+      <c r="Z48" s="91"/>
+      <c r="AA48" s="91"/>
+      <c r="AB48" s="91"/>
+      <c r="AC48" s="92"/>
+      <c r="AD48" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AH48" s="110"/>
+      <c r="AE48" s="91"/>
+      <c r="AF48" s="91"/>
+      <c r="AG48" s="91"/>
+      <c r="AH48" s="92"/>
     </row>
     <row r="49" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="15">
         <v>2.1</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="98">
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83">
         <v>10</v>
       </c>
-      <c r="J49" s="99"/>
-      <c r="K49" s="95" t="s">
+      <c r="J49" s="84"/>
+      <c r="K49" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="96"/>
-      <c r="V49" s="96"/>
-      <c r="W49" s="96"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="95" t="s">
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Z49" s="96"/>
-      <c r="AA49" s="96"/>
-      <c r="AB49" s="96"/>
-      <c r="AC49" s="97"/>
-      <c r="AD49" s="95" t="s">
+      <c r="Z49" s="81"/>
+      <c r="AA49" s="81"/>
+      <c r="AB49" s="81"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AE49" s="96"/>
-      <c r="AF49" s="96"/>
-      <c r="AG49" s="96"/>
-      <c r="AH49" s="97"/>
+      <c r="AE49" s="81"/>
+      <c r="AF49" s="81"/>
+      <c r="AG49" s="81"/>
+      <c r="AH49" s="82"/>
     </row>
     <row r="50" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98">
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="83">
         <v>10</v>
       </c>
-      <c r="J50" s="99"/>
-      <c r="K50" s="95" t="s">
+      <c r="J50" s="84"/>
+      <c r="K50" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="96"/>
-      <c r="U50" s="96"/>
-      <c r="V50" s="96"/>
-      <c r="W50" s="96"/>
-      <c r="X50" s="97"/>
-      <c r="Y50" s="95" t="s">
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="81"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="81"/>
+      <c r="V50" s="81"/>
+      <c r="W50" s="81"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Z50" s="96"/>
-      <c r="AA50" s="96"/>
-      <c r="AB50" s="96"/>
-      <c r="AC50" s="97"/>
-      <c r="AD50" s="95" t="s">
+      <c r="Z50" s="81"/>
+      <c r="AA50" s="81"/>
+      <c r="AB50" s="81"/>
+      <c r="AC50" s="82"/>
+      <c r="AD50" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AE50" s="96"/>
-      <c r="AF50" s="96"/>
-      <c r="AG50" s="96"/>
-      <c r="AH50" s="97"/>
+      <c r="AE50" s="81"/>
+      <c r="AF50" s="81"/>
+      <c r="AG50" s="81"/>
+      <c r="AH50" s="82"/>
     </row>
     <row r="51" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98">
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83">
         <v>8</v>
       </c>
-      <c r="J51" s="99"/>
-      <c r="K51" s="95" t="s">
+      <c r="J51" s="84"/>
+      <c r="K51" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="96"/>
-      <c r="V51" s="96"/>
-      <c r="W51" s="96"/>
-      <c r="X51" s="97"/>
-      <c r="Y51" s="95" t="s">
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="81"/>
+      <c r="U51" s="81"/>
+      <c r="V51" s="81"/>
+      <c r="W51" s="81"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Z51" s="96"/>
-      <c r="AA51" s="96"/>
-      <c r="AB51" s="96"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="95" t="s">
+      <c r="Z51" s="81"/>
+      <c r="AA51" s="81"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="AE51" s="96"/>
-      <c r="AF51" s="96"/>
-      <c r="AG51" s="96"/>
-      <c r="AH51" s="97"/>
+      <c r="AE51" s="81"/>
+      <c r="AF51" s="81"/>
+      <c r="AG51" s="81"/>
+      <c r="AH51" s="82"/>
     </row>
     <row r="52" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="15">
         <v>2.4</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98">
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="83">
         <v>8</v>
       </c>
-      <c r="J52" s="99"/>
-      <c r="K52" s="95" t="s">
+      <c r="J52" s="84"/>
+      <c r="K52" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="96"/>
-      <c r="W52" s="96"/>
-      <c r="X52" s="97"/>
-      <c r="Y52" s="95" t="s">
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="81"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="81"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="Z52" s="96"/>
-      <c r="AA52" s="96"/>
-      <c r="AB52" s="96"/>
-      <c r="AC52" s="97"/>
-      <c r="AD52" s="95" t="s">
+      <c r="Z52" s="81"/>
+      <c r="AA52" s="81"/>
+      <c r="AB52" s="81"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AE52" s="96"/>
-      <c r="AF52" s="96"/>
-      <c r="AG52" s="96"/>
-      <c r="AH52" s="97"/>
+      <c r="AE52" s="81"/>
+      <c r="AF52" s="81"/>
+      <c r="AG52" s="81"/>
+      <c r="AH52" s="82"/>
     </row>
     <row r="53" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="15">
         <v>2.5</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="83">
         <v>32</v>
       </c>
-      <c r="J53" s="99"/>
-      <c r="K53" s="95" t="s">
+      <c r="J53" s="84"/>
+      <c r="K53" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="96"/>
-      <c r="V53" s="96"/>
-      <c r="W53" s="96"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="95" t="s">
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
+      <c r="W53" s="81"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Z53" s="96"/>
-      <c r="AA53" s="96"/>
-      <c r="AB53" s="96"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="95" t="s">
+      <c r="Z53" s="81"/>
+      <c r="AA53" s="81"/>
+      <c r="AB53" s="81"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="AE53" s="96"/>
-      <c r="AF53" s="96"/>
-      <c r="AG53" s="96"/>
-      <c r="AH53" s="97"/>
+      <c r="AE53" s="81"/>
+      <c r="AF53" s="81"/>
+      <c r="AG53" s="81"/>
+      <c r="AH53" s="82"/>
     </row>
     <row r="54" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="15">
         <v>2.6</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98">
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="83">
         <v>12</v>
       </c>
-      <c r="J54" s="99"/>
-      <c r="K54" s="95" t="s">
+      <c r="J54" s="84"/>
+      <c r="K54" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="96"/>
-      <c r="V54" s="96"/>
-      <c r="W54" s="96"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="95" t="s">
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
+      <c r="W54" s="81"/>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Z54" s="96"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="97"/>
-      <c r="AD54" s="95" t="s">
+      <c r="Z54" s="81"/>
+      <c r="AA54" s="81"/>
+      <c r="AB54" s="81"/>
+      <c r="AC54" s="82"/>
+      <c r="AD54" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="AE54" s="96"/>
-      <c r="AF54" s="96"/>
-      <c r="AG54" s="96"/>
-      <c r="AH54" s="97"/>
+      <c r="AE54" s="81"/>
+      <c r="AF54" s="81"/>
+      <c r="AG54" s="81"/>
+      <c r="AH54" s="82"/>
     </row>
     <row r="55" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="21">
         <v>3</v>
       </c>
-      <c r="C55" s="108" t="s">
+      <c r="C55" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="111" t="s">
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="J55" s="112"/>
-      <c r="K55" s="108" t="s">
+      <c r="J55" s="94"/>
+      <c r="K55" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="L55" s="109"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="109"/>
-      <c r="O55" s="109"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
-      <c r="U55" s="109"/>
-      <c r="V55" s="109"/>
-      <c r="W55" s="109"/>
-      <c r="X55" s="110"/>
-      <c r="Y55" s="108" t="s">
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="91"/>
+      <c r="P55" s="91"/>
+      <c r="Q55" s="91"/>
+      <c r="R55" s="91"/>
+      <c r="S55" s="91"/>
+      <c r="T55" s="91"/>
+      <c r="U55" s="91"/>
+      <c r="V55" s="91"/>
+      <c r="W55" s="91"/>
+      <c r="X55" s="92"/>
+      <c r="Y55" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="Z55" s="109"/>
-      <c r="AA55" s="109"/>
-      <c r="AB55" s="109"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="108" t="s">
+      <c r="Z55" s="91"/>
+      <c r="AA55" s="91"/>
+      <c r="AB55" s="91"/>
+      <c r="AC55" s="92"/>
+      <c r="AD55" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AE55" s="109"/>
-      <c r="AF55" s="109"/>
-      <c r="AG55" s="109"/>
-      <c r="AH55" s="110"/>
+      <c r="AE55" s="91"/>
+      <c r="AF55" s="91"/>
+      <c r="AG55" s="91"/>
+      <c r="AH55" s="92"/>
     </row>
     <row r="56" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="15">
         <v>3.1</v>
       </c>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="98">
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="83">
         <v>12</v>
       </c>
-      <c r="J56" s="99"/>
-      <c r="K56" s="95" t="s">
+      <c r="J56" s="84"/>
+      <c r="K56" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="96"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="95" t="s">
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
+      <c r="T56" s="81"/>
+      <c r="U56" s="81"/>
+      <c r="V56" s="81"/>
+      <c r="W56" s="81"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="Z56" s="96"/>
-      <c r="AA56" s="96"/>
-      <c r="AB56" s="96"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="95" t="s">
+      <c r="Z56" s="81"/>
+      <c r="AA56" s="81"/>
+      <c r="AB56" s="81"/>
+      <c r="AC56" s="82"/>
+      <c r="AD56" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="AE56" s="96"/>
-      <c r="AF56" s="96"/>
-      <c r="AG56" s="96"/>
-      <c r="AH56" s="97"/>
+      <c r="AE56" s="81"/>
+      <c r="AF56" s="81"/>
+      <c r="AG56" s="81"/>
+      <c r="AH56" s="82"/>
     </row>
     <row r="57" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="23"/>
@@ -9118,6 +9196,204 @@
     </row>
   </sheetData>
   <mergeCells count="222">
+    <mergeCell ref="B9:AG9"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:AC19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:AC23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AC25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X27:AC27"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:AC29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="X30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="X32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X33:AC33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="X35:AC35"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="X37:AC37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="Y42:AH42"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="K44:X44"/>
+    <mergeCell ref="K42:X43"/>
+    <mergeCell ref="K45:X45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="Y46:AC46"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="K46:X46"/>
+    <mergeCell ref="K47:X47"/>
+    <mergeCell ref="K48:X48"/>
+    <mergeCell ref="K56:X56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="K55:X55"/>
+    <mergeCell ref="K49:X49"/>
+    <mergeCell ref="K50:X50"/>
+    <mergeCell ref="K51:X51"/>
+    <mergeCell ref="K52:X52"/>
+    <mergeCell ref="K53:X53"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="Y50:AC50"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:J53"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:M21"/>
@@ -9142,204 +9418,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="Y52:AC52"/>
     <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="K49:X49"/>
-    <mergeCell ref="K50:X50"/>
-    <mergeCell ref="K51:X51"/>
-    <mergeCell ref="K52:X52"/>
-    <mergeCell ref="K53:X53"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="Y50:AC50"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K56:X56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="K55:X55"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="K46:X46"/>
-    <mergeCell ref="K47:X47"/>
-    <mergeCell ref="K48:X48"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:H43"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="Y42:AH42"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="K44:X44"/>
-    <mergeCell ref="K42:X43"/>
-    <mergeCell ref="K45:X45"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="X35:AC35"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="X37:AC37"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="X33:AC33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:S31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AC31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AC29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="X30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X27:AC27"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AC25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AC23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:AC19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B9:AG9"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
